--- a/public/exports/reporteUsuario_formato.xlsx
+++ b/public/exports/reporteUsuario_formato.xlsx
@@ -16,9 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>Motivo de prestamo</t>
-  </si>
-  <si>
     <t>Fecha Solicitud</t>
   </si>
   <si>
@@ -28,13 +25,16 @@
     <t>Disponibilidad</t>
   </si>
   <si>
-    <t>Número de Expediente</t>
-  </si>
-  <si>
-    <t>Nombre de Expediente</t>
-  </si>
-  <si>
     <t>REPORTE POR USUARIO</t>
+  </si>
+  <si>
+    <t>Tomo</t>
+  </si>
+  <si>
+    <t>Movimiento</t>
+  </si>
+  <si>
+    <t>Fecha Entrega</t>
   </si>
 </sst>
 </file>
@@ -523,11 +523,10 @@
     <col min="1" max="1" width="2.42578125" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="6" customWidth="1"/>
+    <col min="6" max="7" width="20.28515625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" style="6" customWidth="1"/>
     <col min="9" max="9" width="17.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="20" style="1" customWidth="1"/>
     <col min="11" max="11" width="18" style="1" customWidth="1"/>
@@ -545,7 +544,7 @@
   <sheetData>
     <row r="2" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
@@ -557,13 +556,12 @@
     </row>
     <row r="3" spans="3:13" x14ac:dyDescent="0.25">
       <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="6" spans="3:13" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="11" t="s">
         <v>4</v>
       </c>
@@ -577,10 +575,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>2</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
